--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/20/seed1/result_data_KNN.xlsx
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.652</v>
+        <v>12.785</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.404</v>
+        <v>12.711</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.806</v>
+        <v>13.201</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12.772</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.732</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.432</v>
+        <v>12.725</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.566</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="22">
